--- a/results/table_a1.xlsx
+++ b/results/table_a1.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2002-9332, 2006-9233</t>
+          <t>2006-9233</t>
         </is>
       </c>
     </row>
@@ -785,340 +785,340 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MICS3, MICS4</t>
+          <t>DHS 2015, DHS 2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2000-9138</t>
+          <t>1982-9350, 1987-9024, 1993-9472, 1996-9328, 2000-9222, 2002-9349, 2009-9323, 2015-9618</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DHS 2003, DHS 2008, DHS 2014, DHS 2022</t>
+          <t>MICS3, MICS4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1991-9224, 1994-9422, 1996-9326, 1999-9388, 2004-9288, 2005-9719, 2008-9302, 2010-9082, 2011-9663, 2014-9404, 2016-9452</t>
+          <t>2000-9138</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MICS5, MICS6, DHS 2012</t>
+          <t>DHS 2003, DHS 2008, DHS 2014, DHS 2022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2009-9661</t>
+          <t>1991-9224, 1994-9422, 1996-9326, 1999-9388, 2004-9288, 2005-9719, 2008-9302, 2010-9082, 2011-9663, 2014-9404, 2016-9452</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DHS 2000, DHS 2005, DHS 2010, DHS 2014, DHS 2021</t>
+          <t>MICS5, MICS6, DHS 2012</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1994-9223, 2001-9525, 2002-9485, 2005-9206, 2016-9225</t>
+          <t>2009-9661</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lao People’s Democratic Republic</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MICS4, MICS6</t>
+          <t>DHS 2000, DHS 2005, DHS 2010, DHS 2014, DHS 2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1987-9028, 1988-9522</t>
+          <t>1994-9223, 2001-9525, 2002-9485, 2005-9206, 2016-9225</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lao People’s Democratic Republic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DHS 2004, DHS 2009, DHS 2014, MICS6</t>
+          <t>MICS4, MICS6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2002-9333, 2007-9494, 2011-9629</t>
+          <t>1987-9028, 1988-9522</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DHS 2003</t>
+          <t>DHS 2004, DHS 2009, DHS 2014, MICS6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1999-9212</t>
+          <t>2002-9333, 2007-9494, 2011-9629</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DHS 2005</t>
+          <t>DHS 2003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2000-9318</t>
+          <t>1999-9212</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DHS 1992, DHS 1997, DHS 2004, DHS 2008, DHS 2021, MICS6</t>
+          <t>DHS 2005</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1981-9012, 1988-9013, 2000-9309, 2002-9707, 2005-9637, 2008-9644, 2014-9533, 2016-9020</t>
+          <t>2000-9318</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DHS 2001, DHS 2006, DHS 2012, DHS 2018, MICS4, MICS5</t>
+          <t>DHS 1992, DHS 1997, DHS 2004, DHS 2008, DHS 2021, MICS6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2001-9044, 2005-9142, 2006-9425, 2010-9249, 2011-9661</t>
+          <t>1981-9012, 1988-9013, 2000-9309, 2002-9707, 2005-9637, 2008-9644, 2014-9533, 2016-9020</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MICS3, MICS4</t>
+          <t>DHS 2001, DHS 2006, DHS 2012, DHS 2018, MICS4, MICS5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2000-9604</t>
+          <t>2001-9044, 2005-9142, 2006-9425, 2010-9249, 2011-9661</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MICS3, DHS 1997, DHS 2003, DHS 2011</t>
+          <t>MICS3, MICS4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1979-9118, 1981-9016, 1987-9154, 1990-9604, 1998-9620, 2001-9122, 2001-9048, 2003-9035, 2005-9262, 2007-9343</t>
+          <t>2000-9604</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DHS 2020, MICS3, MICS5</t>
+          <t>MICS3, DHS 1997, DHS 2003, DHS 2011</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1993-9511, 1997-9100, 2001-9409, 2010-9292, 2011-9662, 2017-9343</t>
+          <t>1979-9118, 1981-9016, 1987-9154, 1990-9604, 1998-9620, 2001-9122, 2001-9048, 2003-9035, 2005-9262, 2007-9343</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DHS 2000, DHS 2004, DHS 2010, DHS 2015, MICS3, MICS5, MICS6</t>
+          <t>DHS 2020, MICS3, MICS5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1992-9231, 2002-9124, 2005-9578, 2007-9499, 2012-9304</t>
+          <t>1993-9511, 1997-9100, 2001-9409, 2010-9292, 2011-9662, 2017-9343</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DHS 2013</t>
+          <t>DHS 2000, DHS 2004, DHS 2010, DHS 2015, MICS3, MICS5, MICS6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2001-9854, 2002-9022</t>
+          <t>1992-9231, 2002-9124, 2005-9578, 2007-9499, 2012-9304</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DHS 2006, DHS 2012</t>
+          <t>DHS 2013</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2001-9044, 2005-9362</t>
+          <t>2001-9854, 2002-9022</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DHS 1998, DHS 2001</t>
+          <t>DHS 2006, DHS 2012</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1994-9162, 1997-9227</t>
+          <t>2001-9044, 2005-9362</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DHS 2006, DHS 2011, DHS 2016, DHS 2022</t>
+          <t>DHS 1998, DHS 2001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2006-9723, 2009-9660</t>
+          <t>1994-9162, 1997-9227</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MICS4_Balochistan, MICS5_Gilgit_Baltistan, MICS5_Khyber_Pakhtunkhwa, MICS5_Punjab, MICS5_Sindh, MICS6_Balochistan, MICS6_Khyber_Pakhtunkhwa, MICS6_Punjab, MICS6_Sindh, DHS 2017</t>
+          <t>DHS 2006, DHS 2011, DHS 2016, DHS 2022</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1999-9122</t>
+          <t>2006-9723, 2009-9660</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DHS 2000, DHS 2004, DHS 2009</t>
+          <t>MICS4_Balochistan, MICS5_Gilgit_Baltistan, MICS5_Khyber_Pakhtunkhwa, MICS5_Punjab, MICS5_Sindh, MICS6_Balochistan, MICS6_Khyber_Pakhtunkhwa, MICS6_Punjab, MICS6_Sindh, DHS 2017</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2002-9843, 2004-9063</t>
+          <t>1999-9122</t>
         </is>
       </c>
     </row>
